--- a/public/assets/uploads/Uploads/target/dfgkhol.xlsx
+++ b/public/assets/uploads/Uploads/target/dfgkhol.xlsx
@@ -28,9 +28,6 @@
     <t>Product SKU Code</t>
   </si>
   <si>
-    <t>Product SKU Name</t>
-  </si>
-  <si>
     <t>Quantity(Kg/Ltr)</t>
   </si>
   <si>
@@ -41,6 +38,9 @@
   </si>
   <si>
     <t>A1</t>
+  </si>
+  <si>
+    <t>Product SKU Name8989</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -408,10 +408,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -419,16 +419,16 @@
         <v>42497</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D2">
         <v>58515696</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>110</v>
@@ -439,16 +439,16 @@
         <v>42711</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D3">
         <v>58515696</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>210</v>

--- a/public/assets/uploads/Uploads/target/dfgkhol.xlsx
+++ b/public/assets/uploads/Uploads/target/dfgkhol.xlsx
@@ -25,9 +25,6 @@
     <t>Distributor Name</t>
   </si>
   <si>
-    <t>Product SKU Code</t>
-  </si>
-  <si>
     <t>Quantity(Kg/Ltr)</t>
   </si>
   <si>
@@ -40,7 +37,10 @@
     <t>A1</t>
   </si>
   <si>
-    <t>Product SKU Name8989</t>
+    <t>Product SKU Name</t>
+  </si>
+  <si>
+    <t>Product SKU Code7878</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -405,13 +405,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -419,16 +419,16 @@
         <v>42497</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D2">
         <v>58515696</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>110</v>
@@ -439,16 +439,16 @@
         <v>42711</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D3">
         <v>58515696</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>210</v>

--- a/public/assets/uploads/Uploads/target/dfgkhol.xlsx
+++ b/public/assets/uploads/Uploads/target/dfgkhol.xlsx
@@ -40,7 +40,7 @@
     <t>Product SKU Name</t>
   </si>
   <si>
-    <t>Product SKU Code7878</t>
+    <t>Product SKU Code</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
